--- a/data/M2-MS-DIS.xlsx
+++ b/data/M2-MS-DIS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/celcatreport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A164980-BCDE-9E41-AE26-B82EA62280F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EF5283-28F4-B84B-AB9E-2EEF43537F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19580" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Code Apogée</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Stage professionnel et partage d'expérience</t>
+  </si>
+  <si>
+    <t>Groupes CM</t>
   </si>
 </sst>
 </file>
@@ -554,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D425352-B3D2-6642-82B3-EC9BD51219AA}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,7 +571,7 @@
     <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,19 +588,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -614,19 +620,22 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>22</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -643,19 +652,22 @@
         <v>0</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>20</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -672,19 +684,22 @@
         <v>10</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -701,19 +716,22 @@
         <v>10</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -730,19 +748,22 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>16</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -759,19 +780,22 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>20</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -788,19 +812,22 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>18</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -817,19 +844,22 @@
         <v>24</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>12</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -846,19 +876,22 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>15</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>20</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -875,19 +908,22 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>18</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -904,19 +940,22 @@
         <v>21</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>8</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -933,19 +972,22 @@
         <v>9</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>6</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -962,19 +1004,22 @@
         <v>10</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>10</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -991,19 +1036,22 @@
         <v>15</v>
       </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>15</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1020,19 +1068,22 @@
         <v>8</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>4</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1049,19 +1100,22 @@
         <v>0</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>14</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1078,19 +1132,22 @@
         <v>0</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>15</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1107,19 +1164,22 @@
         <v>0</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>10</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1136,22 +1196,24 @@
         <v>0</v>
       </c>
       <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>14</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>30</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I45">
-    <sortCondition ref="B2:B45"/>
-    <sortCondition ref="A2:A45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J20">
+    <sortCondition ref="B2:B20"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
